--- a/文档/盟军关卡.xlsx
+++ b/文档/盟军关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521">
   <si>
     <t>地图名称：斧青谷</t>
   </si>
@@ -1000,19 +1000,19 @@
     <t>※盟宠经验水_少许，</t>
   </si>
   <si>
-    <t>噩梦关  2%掉：※盟宠经验水_少许，碎片_盟宠_小法师，</t>
-  </si>
-  <si>
-    <t>噩梦关  2%掉：※盟宠经验水_少许，</t>
-  </si>
-  <si>
-    <t>噩梦关  2%掉：※盟宠经验水_少许，碎片_盟宠_阿弟达斯，</t>
-  </si>
-  <si>
-    <t>噩梦关  2%掉：※盟宠经验水_少许，碎片_盟宠_阿格留斯，</t>
-  </si>
-  <si>
-    <t>噩梦关  2%掉：※盟宠经验水_少许，碎片_盟宠_阿努比斯，</t>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_小法师，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_阿弟达斯，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_阿格留斯，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_阿努比斯，</t>
   </si>
   <si>
     <t>拂叶鸠     金    3900     175500     292470     117020     175600</t>
@@ -1369,6 +1369,12 @@
     <t>关卡 105 [精英关] 闯关消耗：4200万，3活力 可获经验：★×5点</t>
   </si>
   <si>
+    <t>关卡 110 [精英关] 闯关消耗：4400万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 115 [精英关] 闯关消耗：4600万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
     <t>精英关100%掉：※增加金钱，※增加元宝，※元神+3，</t>
   </si>
   <si>
@@ -1384,6 +1390,12 @@
     <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_血牛+4，宝箱_+3，材料_冰蚕丝，材料_玄火晶，※元神+5，</t>
   </si>
   <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_莽夫+4，宝箱_+3，材料_玄火晶，材料_不尽木，※元神+5，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_金刚+4，宝箱_+3，材料_不尽木，材料_紫金鳞，※元神+5，</t>
+  </si>
+  <si>
     <t>精英关  2%掉：※元神+4，宝箱_+3，</t>
   </si>
   <si>
@@ -1391,6 +1403,180 @@
   </si>
   <si>
     <t>精英关  2%掉：※元神+5，宝箱_+4，通用材料箱，</t>
+  </si>
+  <si>
+    <t>关卡 101 [精英关] 闯关消耗：4040万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 106 [精英关] 闯关消耗：4240万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 111 [精英关] 闯关消耗：4440万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 116 [精英关] 闯关消耗：4640万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，潜能_血牛+4，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，潜能_莽夫+4，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，潜能_金刚+4，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，潜能_神行+4，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，材料_冰蚕丝，通用材料箱，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，材料_玄火晶，通用材料箱，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，材料_不尽木，通用材料箱，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，材料_紫金鳞，通用材料箱，</t>
+  </si>
+  <si>
+    <t>关卡 102 [精英关] 闯关消耗：4080万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 107 [精英关] 闯关消耗：4280万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 112 [精英关] 闯关消耗：4480万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 103 [精英关] 闯关消耗：4120万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 108 [精英关] 闯关消耗：4320万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 113 [精英关] 闯关消耗：4520万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 104 [精英关] 闯关消耗：4160万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 109 [精英关] 闯关消耗：4360万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 114 [精英关] 闯关消耗：4560万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 85 [噩梦关] 闯关消耗：42500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 86 [噩梦关] 闯关消耗：43000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 87 [噩梦关] 闯关消耗：43500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 88 [噩梦关] 闯关消耗：44000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 89 [噩梦关] 闯关消耗：44500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>100%掉：※宝箱，※增加金钱，※增加元宝，潜能_血牛+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t>100%掉：※宝箱，※增加金钱，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_东岳神猿，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_小叮咚，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_小令当，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_小猪芬特，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_雷鸣，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_晶天使，</t>
+  </si>
+  <si>
+    <t>关卡 90 [噩梦关] 闯关消耗：45000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 91 [噩梦关] 闯关消耗：45500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 92 [噩梦关] 闯关消耗：46000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 93 [噩梦关] 闯关消耗：46500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 94 [噩梦关] 闯关消耗：47000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>100%掉：※宝箱，※增加金钱，※增加元宝，潜能_莽夫+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_红粉象，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_来福，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_胡狼，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_常枫，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_唐傲，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_赤龙，</t>
+  </si>
+  <si>
+    <t>关卡 95 [噩梦关] 闯关消耗：47500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 96 [噩梦关] 闯关消耗：48000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 97 [噩梦关] 闯关消耗：48500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 98 [噩梦关] 闯关消耗：49000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>关卡 99 [噩梦关] 闯关消耗：49500万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>100%掉：※宝箱，※增加金钱，※增加元宝，潜能_金刚+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_懒懒象，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_金蝎龙，</t>
+  </si>
+  <si>
+    <t>关卡 100 [噩梦关] 闯关消耗：50000万，10活力 可获经验：★×15点</t>
+  </si>
+  <si>
+    <t>100%掉：※宝箱，※增加金钱，※增加元宝，潜能_神行+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%掉：碎片_盟宠_强盗，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_蓝鸟龙，</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1584,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1420,16 +1606,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1442,6 +1659,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1449,10 +1674,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1472,22 +1720,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,61 +1743,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,25 +1764,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,55 +1800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1848,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,13 +1914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,7 +1926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,25 +1944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,6 +1955,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1791,46 +2025,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,26 +2055,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1877,10 +2063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1889,137 +2075,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,12 +2216,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2094,6 +2274,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2356,12 +2541,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E53" sqref="E53"/>
+      <selection pane="topRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3125,28 +3310,28 @@
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3158,7 +3343,7 @@
       <c r="L15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="4" t="s">
         <v>179</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3173,7 +3358,7 @@
       <c r="Q15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3181,28 +3366,28 @@
       <c r="A16" s="3">
         <v>0.2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3214,7 +3399,7 @@
       <c r="L16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="4" t="s">
         <v>184</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -3229,7 +3414,7 @@
       <c r="Q16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3237,28 +3422,28 @@
       <c r="A17" s="3">
         <v>0.02</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -3270,7 +3455,7 @@
       <c r="L17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>187</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -3285,7 +3470,7 @@
       <c r="Q17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3823,28 +4008,28 @@
       <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3856,7 +4041,7 @@
       <c r="L28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3871,7 +4056,7 @@
       <c r="Q28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3879,28 +4064,28 @@
       <c r="A29" s="3">
         <v>0.2</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>321</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3912,7 +4097,7 @@
       <c r="L29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="4" t="s">
         <v>325</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -3927,7 +4112,7 @@
       <c r="Q29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3935,28 +4120,28 @@
       <c r="A30" s="3">
         <v>0.02</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="1" t="s">
         <v>329</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3968,7 +4153,7 @@
       <c r="L30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="4" t="s">
         <v>331</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -3983,7 +4168,7 @@
       <c r="Q30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="4" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4888,7 +5073,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:9">
       <c r="B51" t="s">
         <v>448</v>
       </c>
@@ -4898,38 +5083,474 @@
       <c r="F51" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="H51" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>454</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D53" t="s">
+        <v>456</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>460</v>
+      </c>
+      <c r="D54" t="s">
+        <v>461</v>
+      </c>
+      <c r="F54" t="s">
+        <v>462</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9">
+      <c r="D56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I56" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="D57" t="s">
         <v>454</v>
       </c>
-      <c r="F53" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
-        <v>456</v>
-      </c>
-      <c r="D54" t="s">
-        <v>457</v>
-      </c>
-      <c r="F54" t="s">
-        <v>458</v>
+      <c r="F57" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="D58" t="s">
+        <v>467</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9">
+      <c r="D59" t="s">
+        <v>471</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8">
+      <c r="D61" t="s">
+        <v>475</v>
+      </c>
+      <c r="F61" t="s">
+        <v>476</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="D62" t="s">
+        <v>454</v>
+      </c>
+      <c r="F62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8">
+      <c r="D63" t="s">
+        <v>467</v>
+      </c>
+      <c r="F63" t="s">
+        <v>468</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="D64" t="s">
+        <v>471</v>
+      </c>
+      <c r="F64" t="s">
+        <v>472</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" t="s">
+        <v>478</v>
+      </c>
+      <c r="F66" t="s">
+        <v>479</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" t="s">
+        <v>454</v>
+      </c>
+      <c r="F67" t="s">
+        <v>454</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68" t="s">
+        <v>467</v>
+      </c>
+      <c r="F68" t="s">
+        <v>468</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8">
+      <c r="D69" t="s">
+        <v>471</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8">
+      <c r="D71" t="s">
+        <v>481</v>
+      </c>
+      <c r="F71" t="s">
+        <v>482</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8">
+      <c r="D72" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8">
+      <c r="D73" t="s">
+        <v>467</v>
+      </c>
+      <c r="F73" t="s">
+        <v>468</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8">
+      <c r="D74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F74" t="s">
+        <v>473</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" t="s">
+        <v>484</v>
+      </c>
+      <c r="D81" t="s">
+        <v>485</v>
+      </c>
+      <c r="E81" t="s">
+        <v>486</v>
+      </c>
+      <c r="F81" t="s">
+        <v>487</v>
+      </c>
+      <c r="G81" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" t="s">
+        <v>489</v>
+      </c>
+      <c r="D82" t="s">
+        <v>490</v>
+      </c>
+      <c r="E82" t="s">
+        <v>490</v>
+      </c>
+      <c r="F82" t="s">
+        <v>490</v>
+      </c>
+      <c r="G82" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" t="s">
+        <v>492</v>
+      </c>
+      <c r="E83" t="s">
+        <v>493</v>
+      </c>
+      <c r="F83" t="s">
+        <v>494</v>
+      </c>
+      <c r="G83" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" t="s">
+        <v>496</v>
+      </c>
+      <c r="D84" t="s">
+        <v>329</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D86" t="s">
+        <v>498</v>
+      </c>
+      <c r="E86" t="s">
+        <v>499</v>
+      </c>
+      <c r="F86" t="s">
+        <v>500</v>
+      </c>
+      <c r="G86" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D87" t="s">
+        <v>490</v>
+      </c>
+      <c r="E87" t="s">
+        <v>490</v>
+      </c>
+      <c r="F87" t="s">
+        <v>490</v>
+      </c>
+      <c r="G87" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" t="s">
+        <v>504</v>
+      </c>
+      <c r="E88" t="s">
+        <v>505</v>
+      </c>
+      <c r="F88" t="s">
+        <v>506</v>
+      </c>
+      <c r="G88" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D89" t="s">
+        <v>329</v>
+      </c>
+      <c r="E89" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" t="s">
+        <v>329</v>
+      </c>
+      <c r="G89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D91" t="s">
+        <v>510</v>
+      </c>
+      <c r="E91" t="s">
+        <v>511</v>
+      </c>
+      <c r="F91" t="s">
+        <v>512</v>
+      </c>
+      <c r="G91" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D92" t="s">
+        <v>490</v>
+      </c>
+      <c r="E92" t="s">
+        <v>490</v>
+      </c>
+      <c r="F92" t="s">
+        <v>490</v>
+      </c>
+      <c r="G92" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D93" t="s">
+        <v>504</v>
+      </c>
+      <c r="E93" t="s">
+        <v>505</v>
+      </c>
+      <c r="F93" t="s">
+        <v>506</v>
+      </c>
+      <c r="G93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D94" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" t="s">
+        <v>329</v>
+      </c>
+      <c r="G94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/文档/盟军关卡.xlsx
+++ b/文档/盟军关卡.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28455" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580">
   <si>
     <t>地图名称：斧青谷</t>
   </si>
@@ -1577,6 +1578,183 @@
   </si>
   <si>
     <t xml:space="preserve">  2%掉：※盟宠经验水_少许，碎片_盟宠_蓝鸟龙，</t>
+  </si>
+  <si>
+    <t>关卡 120 [精英关] 闯关消耗：4800万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 121 [精英关] 闯关消耗：4840万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>精英关100%掉：※增加金钱，※增加元宝，※元神+5，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_神行+4，宝箱_+4，通用材料箱，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+6，宝箱_+4，通用材料箱，</t>
+  </si>
+  <si>
+    <t>关卡 122 [精英关] 闯关消耗：4880万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 123 [精英关] 闯关消耗：4920万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 124 [精英关] 闯关消耗：4960万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>升级石价值</t>
+  </si>
+  <si>
+    <t>5个升级石价值</t>
+  </si>
+  <si>
+    <t>固定资金</t>
+  </si>
+  <si>
+    <t>元宝</t>
+  </si>
+  <si>
+    <t>赞助点</t>
+  </si>
+  <si>
+    <t>元神+4</t>
+  </si>
+  <si>
+    <t>元神+5</t>
+  </si>
+  <si>
+    <t>元神+6</t>
+  </si>
+  <si>
+    <t>元神+7</t>
+  </si>
+  <si>
+    <t>元神+8</t>
+  </si>
+  <si>
+    <t>元神+9</t>
+  </si>
+  <si>
+    <t>火淬原石</t>
+  </si>
+  <si>
+    <t>1阶升级石</t>
+  </si>
+  <si>
+    <t>2阶升级石</t>
+  </si>
+  <si>
+    <t>增加荣誉 * 50000</t>
+  </si>
+  <si>
+    <t>3阶升级石</t>
+  </si>
+  <si>
+    <t>兽魂-神兽 * 20</t>
+  </si>
+  <si>
+    <t>4阶升级石</t>
+  </si>
+  <si>
+    <t>火淬原石 * 20</t>
+  </si>
+  <si>
+    <t>星魂-碎片 * 3-10</t>
+  </si>
+  <si>
+    <t>1阶升级石 * 5</t>
+  </si>
+  <si>
+    <t>2阶升级石 * 5</t>
+  </si>
+  <si>
+    <t>3阶升级石 * 5</t>
+  </si>
+  <si>
+    <t>4阶升级石 * 5</t>
+  </si>
+  <si>
+    <t>随机盟宠6 * 1</t>
+  </si>
+  <si>
+    <t>随机盟宠8 * 1</t>
+  </si>
+  <si>
+    <t>通用材料箱 * 100</t>
+  </si>
+  <si>
+    <t>潜能+3 * 5</t>
+  </si>
+  <si>
+    <t>潜能+4 * 5</t>
+  </si>
+  <si>
+    <t>潜能+5 * 5</t>
+  </si>
+  <si>
+    <t>※盟宠经验水_少许 * 20</t>
+  </si>
+  <si>
+    <t>※盟宠经验水_大量 * 10</t>
+  </si>
+  <si>
+    <t>※盟宠经验水_巨多 * 10</t>
+  </si>
+  <si>
+    <t>增加活力 * 50</t>
+  </si>
+  <si>
+    <t>宝箱 * 666</t>
+  </si>
+  <si>
+    <t>宝箱+3 * 3</t>
+  </si>
+  <si>
+    <t>宝箱+5 * 2</t>
+  </si>
+  <si>
+    <t>元神+4 * 50</t>
+  </si>
+  <si>
+    <t>元神+5 * 20</t>
+  </si>
+  <si>
+    <t>元神+6 * 20</t>
+  </si>
+  <si>
+    <t>元神+7 * 10</t>
+  </si>
+  <si>
+    <t>元神+8 * 10</t>
+  </si>
+  <si>
+    <t>元神+9 * 10</t>
+  </si>
+  <si>
+    <t>通用魂兽一星 * 20</t>
+  </si>
+  <si>
+    <t>通用魂兽二星 * 20</t>
+  </si>
+  <si>
+    <t>通用魂兽三星 * 20</t>
+  </si>
+  <si>
+    <t>通用魂兽四星 * 20</t>
+  </si>
+  <si>
+    <t>通用魂兽五星 * 20</t>
+  </si>
+  <si>
+    <t>兽魂-月狐 * 20</t>
+  </si>
+  <si>
+    <t>兽魂-赤炎金猊兽 * 20</t>
+  </si>
+  <si>
+    <t>兽魂-穷奇 * 20</t>
   </si>
 </sst>
 </file>
@@ -1584,15 +1762,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1605,48 +1797,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1667,14 +1822,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1690,37 +1867,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,7 +1897,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1764,7 +1956,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +2040,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,115 +2106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,31 +2124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,25 +2150,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1984,24 +2167,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2025,33 +2195,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,10 +2255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,16 +2267,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2093,132 +2285,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2534,32 +2732,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E54" sqref="E54"/>
+      <selection pane="topRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="3" customWidth="1"/>
     <col min="4" max="7" width="34.375" customWidth="1"/>
-    <col min="8" max="8" width="51.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.375" style="3" customWidth="1"/>
     <col min="9" max="12" width="34.375" customWidth="1"/>
-    <col min="13" max="13" width="52.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="52.625" style="3" customWidth="1"/>
     <col min="14" max="17" width="34.375" customWidth="1"/>
-    <col min="18" max="18" width="52.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="52.125" style="3" customWidth="1"/>
     <col min="19" max="20" width="34.375" customWidth="1"/>
     <col min="21" max="23" width="67.125" customWidth="1"/>
   </cols>
@@ -2568,7 +2765,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2583,7 +2780,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -2598,7 +2795,7 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
@@ -2613,7 +2810,7 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2621,7 +2818,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
@@ -2636,7 +2833,7 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -2651,7 +2848,7 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
@@ -2666,7 +2863,7 @@
       <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2674,7 +2871,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -2689,7 +2886,7 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
@@ -2704,7 +2901,7 @@
       <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" t="s">
@@ -2719,7 +2916,7 @@
       <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2727,7 +2924,7 @@
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
@@ -2742,7 +2939,7 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I4" t="s">
@@ -2757,7 +2954,7 @@
       <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N4" t="s">
@@ -2772,7 +2969,7 @@
       <c r="Q4" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2780,7 +2977,7 @@
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
@@ -2795,7 +2992,7 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I5" t="s">
@@ -2810,7 +3007,7 @@
       <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N5" t="s">
@@ -2825,7 +3022,7 @@
       <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2833,7 +3030,7 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D6" t="s">
@@ -2848,7 +3045,7 @@
       <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I6" t="s">
@@ -2863,7 +3060,7 @@
       <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N6" t="s">
@@ -2878,7 +3075,7 @@
       <c r="Q6" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2886,7 +3083,7 @@
       <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
@@ -2901,7 +3098,7 @@
       <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
@@ -2916,7 +3113,7 @@
       <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N7" t="s">
@@ -2931,7 +3128,7 @@
       <c r="Q7" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2939,7 +3136,7 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
@@ -2954,7 +3151,7 @@
       <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
@@ -2969,7 +3166,7 @@
       <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N8" t="s">
@@ -2984,7 +3181,7 @@
       <c r="Q8" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2992,7 +3189,7 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D9" t="s">
@@ -3007,7 +3204,7 @@
       <c r="G9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I9" t="s">
@@ -3022,7 +3219,7 @@
       <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N9" t="s">
@@ -3037,7 +3234,7 @@
       <c r="Q9" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3045,7 +3242,7 @@
       <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D10" t="s">
@@ -3060,7 +3257,7 @@
       <c r="G10" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>118</v>
       </c>
       <c r="I10" t="s">
@@ -3075,7 +3272,7 @@
       <c r="L10" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N10" t="s">
@@ -3090,7 +3287,7 @@
       <c r="Q10" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3098,7 +3295,7 @@
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D11" t="s">
@@ -3113,7 +3310,7 @@
       <c r="G11" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I11" t="s">
@@ -3128,7 +3325,7 @@
       <c r="L11" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N11" t="s">
@@ -3143,7 +3340,7 @@
       <c r="Q11" t="s">
         <v>141</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3151,7 +3348,7 @@
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D12" t="s">
@@ -3166,7 +3363,7 @@
       <c r="G12" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>149</v>
       </c>
       <c r="I12" t="s">
@@ -3181,7 +3378,7 @@
       <c r="L12" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N12" t="s">
@@ -3196,7 +3393,7 @@
       <c r="Q12" t="s">
         <v>158</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3204,7 +3401,7 @@
       <c r="B13" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D13" t="s">
@@ -3219,7 +3416,7 @@
       <c r="G13" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>160</v>
       </c>
       <c r="I13" t="s">
@@ -3234,7 +3431,7 @@
       <c r="L13" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N13" t="s">
@@ -3249,7 +3446,7 @@
       <c r="Q13" t="s">
         <v>160</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3257,7 +3454,7 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D14" t="s">
@@ -3272,7 +3469,7 @@
       <c r="G14" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>167</v>
       </c>
       <c r="I14" t="s">
@@ -3287,7 +3484,7 @@
       <c r="L14" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N14" t="s">
@@ -3302,175 +3499,175 @@
       <c r="Q14" t="s">
         <v>176</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:18">
-      <c r="A15" s="3">
+    <row r="15" s="4" customFormat="1" spans="1:18">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:18">
-      <c r="A16" s="3">
+    <row r="16" s="4" customFormat="1" spans="1:18">
+      <c r="A16" s="5">
         <v>0.2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:18">
-      <c r="A17" s="3">
+    <row r="17" s="4" customFormat="1" spans="1:18">
+      <c r="A17" s="5">
         <v>0.02</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3478,7 +3675,7 @@
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" t="s">
@@ -3493,7 +3690,7 @@
       <c r="G18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I18" t="s">
@@ -3508,7 +3705,7 @@
       <c r="L18" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N18" t="s">
@@ -3523,7 +3720,7 @@
       <c r="Q18" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3531,7 +3728,7 @@
       <c r="B19" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D19" t="s">
@@ -3546,7 +3743,7 @@
       <c r="G19" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>197</v>
       </c>
       <c r="I19" t="s">
@@ -3561,7 +3758,7 @@
       <c r="L19" t="s">
         <v>201</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>202</v>
       </c>
       <c r="N19" t="s">
@@ -3576,7 +3773,7 @@
       <c r="Q19" t="s">
         <v>206</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3584,7 +3781,7 @@
       <c r="B20" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" t="s">
@@ -3599,7 +3796,7 @@
       <c r="G20" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>197</v>
       </c>
       <c r="I20" t="s">
@@ -3614,7 +3811,7 @@
       <c r="L20" t="s">
         <v>216</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>217</v>
       </c>
       <c r="N20" t="s">
@@ -3629,7 +3826,7 @@
       <c r="Q20" t="s">
         <v>220</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3637,7 +3834,7 @@
       <c r="B21" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D21" t="s">
@@ -3652,7 +3849,7 @@
       <c r="G21" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>226</v>
       </c>
       <c r="I21" t="s">
@@ -3667,7 +3864,7 @@
       <c r="L21" t="s">
         <v>230</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>231</v>
       </c>
       <c r="N21" t="s">
@@ -3682,7 +3879,7 @@
       <c r="Q21" t="s">
         <v>235</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3690,7 +3887,7 @@
       <c r="B22" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D22" t="s">
@@ -3705,7 +3902,7 @@
       <c r="G22" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>241</v>
       </c>
       <c r="I22" t="s">
@@ -3720,7 +3917,7 @@
       <c r="L22" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>245</v>
       </c>
       <c r="N22" t="s">
@@ -3735,7 +3932,7 @@
       <c r="Q22" t="s">
         <v>249</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3743,7 +3940,7 @@
       <c r="B23" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D23" t="s">
@@ -3758,7 +3955,7 @@
       <c r="G23" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>256</v>
       </c>
       <c r="I23" t="s">
@@ -3773,7 +3970,7 @@
       <c r="L23" t="s">
         <v>258</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>259</v>
       </c>
       <c r="N23" t="s">
@@ -3788,7 +3985,7 @@
       <c r="Q23" t="s">
         <v>262</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3796,7 +3993,7 @@
       <c r="B24" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>265</v>
       </c>
       <c r="D24" t="s">
@@ -3811,7 +4008,7 @@
       <c r="G24" t="s">
         <v>269</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>270</v>
       </c>
       <c r="I24" t="s">
@@ -3826,7 +4023,7 @@
       <c r="L24" t="s">
         <v>274</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>275</v>
       </c>
       <c r="N24" t="s">
@@ -3841,7 +4038,7 @@
       <c r="Q24" t="s">
         <v>279</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="3" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3849,7 +4046,7 @@
       <c r="B25" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D25" t="s">
@@ -3864,7 +4061,7 @@
       <c r="G25" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>287</v>
       </c>
       <c r="I25" t="s">
@@ -3879,7 +4076,7 @@
       <c r="L25" t="s">
         <v>291</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>292</v>
       </c>
       <c r="N25" t="s">
@@ -3894,7 +4091,7 @@
       <c r="Q25" t="s">
         <v>296</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3902,7 +4099,7 @@
       <c r="B26" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D26" t="s">
@@ -3917,7 +4114,7 @@
       <c r="G26" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>160</v>
       </c>
       <c r="I26" t="s">
@@ -3932,7 +4129,7 @@
       <c r="L26" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N26" t="s">
@@ -3947,7 +4144,7 @@
       <c r="Q26" t="s">
         <v>160</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3955,7 +4152,7 @@
       <c r="B27" t="s">
         <v>298</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D27" t="s">
@@ -3970,7 +4167,7 @@
       <c r="G27" t="s">
         <v>303</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>304</v>
       </c>
       <c r="I27" t="s">
@@ -3985,7 +4182,7 @@
       <c r="L27" t="s">
         <v>308</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>309</v>
       </c>
       <c r="N27" t="s">
@@ -4000,175 +4197,175 @@
       <c r="Q27" t="s">
         <v>313</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:18">
-      <c r="A28" s="3">
+    <row r="28" s="4" customFormat="1" spans="1:18">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:18">
-      <c r="A29" s="3">
+    <row r="29" s="4" customFormat="1" spans="1:18">
+      <c r="A29" s="5">
         <v>0.2</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:18">
-      <c r="A30" s="3">
+    <row r="30" s="4" customFormat="1" spans="1:18">
+      <c r="A30" s="5">
         <v>0.02</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4176,7 +4373,7 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D31" t="s">
@@ -4191,7 +4388,7 @@
       <c r="G31" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I31" t="s">
@@ -4206,7 +4403,7 @@
       <c r="L31" t="s">
         <v>52</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N31" t="s">
@@ -4221,7 +4418,7 @@
       <c r="Q31" t="s">
         <v>52</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4229,7 +4426,7 @@
       <c r="B32" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D32" t="s">
@@ -4244,7 +4441,7 @@
       <c r="G32" t="s">
         <v>338</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>339</v>
       </c>
       <c r="I32" t="s">
@@ -4259,7 +4456,7 @@
       <c r="L32" t="s">
         <v>343</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>344</v>
       </c>
       <c r="N32" t="s">
@@ -4274,7 +4471,7 @@
       <c r="Q32" t="s">
         <v>348</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4282,7 +4479,7 @@
       <c r="B33" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D33" t="s">
@@ -4297,7 +4494,7 @@
       <c r="G33" t="s">
         <v>354</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>339</v>
       </c>
       <c r="I33" t="s">
@@ -4312,7 +4509,7 @@
       <c r="L33" t="s">
         <v>358</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>359</v>
       </c>
       <c r="N33" t="s">
@@ -4327,7 +4524,7 @@
       <c r="Q33" t="s">
         <v>362</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4335,7 +4532,7 @@
       <c r="B34" t="s">
         <v>350</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D34" t="s">
@@ -4350,7 +4547,7 @@
       <c r="G34" t="s">
         <v>367</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>368</v>
       </c>
       <c r="I34" t="s">
@@ -4365,7 +4562,7 @@
       <c r="L34" t="s">
         <v>372</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>373</v>
       </c>
       <c r="N34" t="s">
@@ -4380,7 +4577,7 @@
       <c r="Q34" t="s">
         <v>377</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4388,7 +4585,7 @@
       <c r="B35" t="s">
         <v>378</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D35" t="s">
@@ -4403,7 +4600,7 @@
       <c r="G35" t="s">
         <v>382</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>383</v>
       </c>
       <c r="I35" t="s">
@@ -4418,7 +4615,7 @@
       <c r="L35" t="s">
         <v>386</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>387</v>
       </c>
       <c r="N35" t="s">
@@ -4433,7 +4630,7 @@
       <c r="Q35" t="s">
         <v>391</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4441,7 +4638,7 @@
       <c r="B36" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>394</v>
       </c>
       <c r="D36" t="s">
@@ -4456,7 +4653,7 @@
       <c r="G36" t="s">
         <v>397</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="3" t="s">
         <v>398</v>
       </c>
       <c r="I36" t="s">
@@ -4471,7 +4668,7 @@
       <c r="L36" t="s">
         <v>400</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>401</v>
       </c>
       <c r="N36" t="s">
@@ -4486,7 +4683,7 @@
       <c r="Q36" t="s">
         <v>404</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4494,7 +4691,7 @@
       <c r="B37" t="s">
         <v>406</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>407</v>
       </c>
       <c r="D37" t="s">
@@ -4509,7 +4706,7 @@
       <c r="G37" t="s">
         <v>411</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>412</v>
       </c>
       <c r="I37" t="s">
@@ -4524,7 +4721,7 @@
       <c r="L37" t="s">
         <v>416</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>417</v>
       </c>
       <c r="N37" t="s">
@@ -4539,7 +4736,7 @@
       <c r="Q37" t="s">
         <v>421</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4547,7 +4744,7 @@
       <c r="B38" t="s">
         <v>423</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>424</v>
       </c>
       <c r="D38" t="s">
@@ -4562,7 +4759,7 @@
       <c r="G38" t="s">
         <v>428</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>429</v>
       </c>
       <c r="I38" t="s">
@@ -4577,7 +4774,7 @@
       <c r="L38" t="s">
         <v>433</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>434</v>
       </c>
       <c r="N38" t="s">
@@ -4592,7 +4789,7 @@
       <c r="Q38" t="s">
         <v>438</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4600,7 +4797,7 @@
       <c r="B39" t="s">
         <v>440</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D39" t="s">
@@ -4615,7 +4812,7 @@
       <c r="G39" t="s">
         <v>440</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="3" t="s">
         <v>440</v>
       </c>
       <c r="I39" t="s">
@@ -4630,7 +4827,7 @@
       <c r="L39" t="s">
         <v>440</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>440</v>
       </c>
       <c r="N39" t="s">
@@ -4645,7 +4842,7 @@
       <c r="Q39" t="s">
         <v>440</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4653,7 +4850,7 @@
       <c r="B40" t="s">
         <v>441</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>441</v>
       </c>
       <c r="D40" t="s">
@@ -4668,7 +4865,7 @@
       <c r="G40" t="s">
         <v>441</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="3" t="s">
         <v>441</v>
       </c>
       <c r="I40" t="s">
@@ -4683,7 +4880,7 @@
       <c r="L40" t="s">
         <v>441</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>441</v>
       </c>
       <c r="N40" t="s">
@@ -4698,7 +4895,7 @@
       <c r="Q40" t="s">
         <v>441</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="3" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4706,7 +4903,7 @@
       <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
@@ -4721,7 +4918,7 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
@@ -4736,7 +4933,7 @@
       <c r="L41" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N41" t="s">
@@ -4751,7 +4948,7 @@
       <c r="Q41" t="s">
         <v>17</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4759,7 +4956,7 @@
       <c r="B42" t="s">
         <v>442</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>442</v>
       </c>
       <c r="D42" t="s">
@@ -4774,7 +4971,7 @@
       <c r="G42" t="s">
         <v>442</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>442</v>
       </c>
       <c r="I42" t="s">
@@ -4789,7 +4986,7 @@
       <c r="L42" t="s">
         <v>442</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>442</v>
       </c>
       <c r="N42" t="s">
@@ -4804,7 +5001,7 @@
       <c r="Q42" t="s">
         <v>442</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="3" t="s">
         <v>442</v>
       </c>
     </row>
@@ -4812,7 +5009,7 @@
       <c r="B43" t="s">
         <v>443</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>443</v>
       </c>
       <c r="D43" t="s">
@@ -4827,7 +5024,7 @@
       <c r="G43" t="s">
         <v>443</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>443</v>
       </c>
       <c r="I43" t="s">
@@ -4842,7 +5039,7 @@
       <c r="L43" t="s">
         <v>443</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>443</v>
       </c>
       <c r="N43" t="s">
@@ -4857,7 +5054,7 @@
       <c r="Q43" t="s">
         <v>443</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4865,7 +5062,7 @@
       <c r="B44" t="s">
         <v>444</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>444</v>
       </c>
       <c r="D44" t="s">
@@ -4880,7 +5077,7 @@
       <c r="G44" t="s">
         <v>444</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>444</v>
       </c>
       <c r="I44" t="s">
@@ -4895,7 +5092,7 @@
       <c r="L44" t="s">
         <v>444</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>444</v>
       </c>
       <c r="N44" t="s">
@@ -4910,7 +5107,7 @@
       <c r="Q44" t="s">
         <v>444</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4918,7 +5115,7 @@
       <c r="B45" t="s">
         <v>445</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>445</v>
       </c>
       <c r="D45" t="s">
@@ -4933,7 +5130,7 @@
       <c r="G45" t="s">
         <v>445</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>445</v>
       </c>
       <c r="I45" t="s">
@@ -4948,7 +5145,7 @@
       <c r="L45" t="s">
         <v>445</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>445</v>
       </c>
       <c r="N45" t="s">
@@ -4963,7 +5160,7 @@
       <c r="Q45" t="s">
         <v>445</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="3" t="s">
         <v>445</v>
       </c>
     </row>
@@ -4971,7 +5168,7 @@
       <c r="B46" t="s">
         <v>446</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>446</v>
       </c>
       <c r="D46" t="s">
@@ -4986,7 +5183,7 @@
       <c r="G46" t="s">
         <v>446</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>446</v>
       </c>
       <c r="I46" t="s">
@@ -5001,7 +5198,7 @@
       <c r="L46" t="s">
         <v>446</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>446</v>
       </c>
       <c r="N46" t="s">
@@ -5016,7 +5213,7 @@
       <c r="Q46" t="s">
         <v>446</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="3" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5024,7 +5221,7 @@
       <c r="B47" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>447</v>
       </c>
       <c r="D47" t="s">
@@ -5039,7 +5236,7 @@
       <c r="G47" t="s">
         <v>447</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="3" t="s">
         <v>447</v>
       </c>
       <c r="I47" t="s">
@@ -5054,7 +5251,7 @@
       <c r="L47" t="s">
         <v>447</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>447</v>
       </c>
       <c r="N47" t="s">
@@ -5069,7 +5266,7 @@
       <c r="Q47" t="s">
         <v>447</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="3" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5083,7 +5280,7 @@
       <c r="F51" t="s">
         <v>450</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>451</v>
       </c>
       <c r="I51" t="s">
@@ -5100,7 +5297,7 @@
       <c r="F52" t="s">
         <v>454</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>454</v>
       </c>
       <c r="I52" t="s">
@@ -5117,7 +5314,7 @@
       <c r="F53" t="s">
         <v>457</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>458</v>
       </c>
       <c r="I53" t="s">
@@ -5134,7 +5331,7 @@
       <c r="F54" t="s">
         <v>462</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>462</v>
       </c>
       <c r="I54" t="s">
@@ -5148,7 +5345,7 @@
       <c r="F56" t="s">
         <v>464</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>465</v>
       </c>
       <c r="I56" t="s">
@@ -5162,7 +5359,7 @@
       <c r="F57" t="s">
         <v>454</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>454</v>
       </c>
       <c r="I57" t="s">
@@ -5176,7 +5373,7 @@
       <c r="F58" t="s">
         <v>468</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>469</v>
       </c>
       <c r="I58" t="s">
@@ -5190,7 +5387,7 @@
       <c r="F59" t="s">
         <v>472</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>473</v>
       </c>
       <c r="I59" t="s">
@@ -5204,7 +5401,7 @@
       <c r="F61" t="s">
         <v>476</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="3" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5215,7 +5412,7 @@
       <c r="F62" t="s">
         <v>454</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5226,7 +5423,7 @@
       <c r="F63" t="s">
         <v>468</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="3" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5237,7 +5434,7 @@
       <c r="F64" t="s">
         <v>472</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5248,7 +5445,7 @@
       <c r="F66" t="s">
         <v>479</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5259,7 +5456,7 @@
       <c r="F67" t="s">
         <v>454</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5270,7 +5467,7 @@
       <c r="F68" t="s">
         <v>468</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5281,7 +5478,7 @@
       <c r="F69" t="s">
         <v>473</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5292,7 +5489,7 @@
       <c r="F71" t="s">
         <v>482</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5303,7 +5500,7 @@
       <c r="F72" t="s">
         <v>454</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="3" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5314,7 +5511,7 @@
       <c r="F73" t="s">
         <v>468</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5325,7 +5522,7 @@
       <c r="F74" t="s">
         <v>473</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5398,7 +5595,7 @@
       </c>
     </row>
     <row r="86" spans="3:7">
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>497</v>
       </c>
       <c r="D86" t="s">
@@ -5415,7 +5612,7 @@
       </c>
     </row>
     <row r="87" spans="3:7">
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>502</v>
       </c>
       <c r="D87" t="s">
@@ -5432,7 +5629,7 @@
       </c>
     </row>
     <row r="88" spans="3:7">
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>503</v>
       </c>
       <c r="D88" t="s">
@@ -5449,7 +5646,7 @@
       </c>
     </row>
     <row r="89" spans="3:7">
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>508</v>
       </c>
       <c r="D89" t="s">
@@ -5466,7 +5663,7 @@
       </c>
     </row>
     <row r="91" spans="3:7">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>509</v>
       </c>
       <c r="D91" t="s">
@@ -5483,7 +5680,7 @@
       </c>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>514</v>
       </c>
       <c r="D92" t="s">
@@ -5500,7 +5697,7 @@
       </c>
     </row>
     <row r="93" spans="3:7">
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>515</v>
       </c>
       <c r="D93" t="s">
@@ -5517,7 +5714,7 @@
       </c>
     </row>
     <row r="94" spans="3:7">
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>516</v>
       </c>
       <c r="D94" t="s">
@@ -5534,23 +5731,655 @@
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101" t="s">
+        <v>521</v>
+      </c>
+      <c r="F101" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" t="s">
+        <v>523</v>
+      </c>
+      <c r="F102" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103" t="s">
+        <v>524</v>
+      </c>
+      <c r="F103" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104" t="s">
+        <v>525</v>
+      </c>
+      <c r="F104" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106" t="s">
+        <v>526</v>
+      </c>
+      <c r="F106" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" t="s">
+        <v>454</v>
+      </c>
+      <c r="F107" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="D108" t="s">
+        <v>467</v>
+      </c>
+      <c r="F108" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109" t="s">
+        <v>471</v>
+      </c>
+      <c r="F109" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="15" max="17" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:17">
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J2" t="s">
+        <v>533</v>
+      </c>
+      <c r="L2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>543</v>
+      </c>
+      <c r="P4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>545</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>204</v>
+      </c>
+      <c r="L6">
+        <v>1020</v>
+      </c>
+      <c r="N6" t="s">
+        <v>547</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="14:17">
+      <c r="N7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="14:17">
+      <c r="N9" t="s">
+        <v>549</v>
+      </c>
+      <c r="O9">
+        <v>600</v>
+      </c>
+      <c r="P9">
+        <v>30000</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="14:15">
+      <c r="N10" t="s">
+        <v>550</v>
+      </c>
+      <c r="O10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="14:18">
+      <c r="N11" t="s">
+        <v>551</v>
+      </c>
+      <c r="O11">
+        <v>4000</v>
+      </c>
+      <c r="P11">
+        <v>200000</v>
+      </c>
+      <c r="R11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="14:17">
+      <c r="N12" t="s">
+        <v>552</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>300000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="14:17">
+      <c r="N14" t="s">
+        <v>553</v>
+      </c>
+      <c r="O14">
+        <v>500</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="14:18">
+      <c r="N15" t="s">
+        <v>554</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="P15">
+        <v>50000</v>
+      </c>
+      <c r="R15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15">
+      <c r="N17" t="s">
+        <v>555</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17">
+      <c r="N19" t="s">
+        <v>556</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>5000</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="14:16">
+      <c r="N20" t="s">
+        <v>557</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17">
+      <c r="N21" t="s">
+        <v>558</v>
+      </c>
+      <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21">
+        <v>25000</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17">
+      <c r="N23" t="s">
+        <v>559</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>50000</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="14:16">
+      <c r="N24" t="s">
+        <v>560</v>
+      </c>
+      <c r="O24">
+        <v>2000</v>
+      </c>
+      <c r="P24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17">
+      <c r="N25" t="s">
+        <v>561</v>
+      </c>
+      <c r="O25">
+        <v>2000</v>
+      </c>
+      <c r="P25">
+        <v>100000</v>
+      </c>
+      <c r="Q25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17">
+      <c r="N27" t="s">
+        <v>562</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>5000</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17">
+      <c r="N29" t="s">
+        <v>563</v>
+      </c>
+      <c r="O29">
+        <v>1000</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="14:15">
+      <c r="N30" t="s">
+        <v>564</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17">
+      <c r="N32" t="s">
+        <v>565</v>
+      </c>
+      <c r="O32">
+        <v>1000</v>
+      </c>
+      <c r="P32">
+        <v>100000</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17">
+      <c r="N36" t="s">
+        <v>566</v>
+      </c>
+      <c r="O36">
+        <v>200</v>
+      </c>
+      <c r="P36">
+        <v>10000</v>
+      </c>
+      <c r="Q36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17">
+      <c r="N37" t="s">
+        <v>567</v>
+      </c>
+      <c r="O37">
+        <v>200</v>
+      </c>
+      <c r="P37">
+        <v>10000</v>
+      </c>
+      <c r="Q37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15">
+      <c r="N38" t="s">
+        <v>568</v>
+      </c>
+      <c r="O38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15">
+      <c r="N39" t="s">
+        <v>569</v>
+      </c>
+      <c r="O39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17">
+      <c r="N40" t="s">
+        <v>570</v>
+      </c>
+      <c r="O40">
+        <v>1000</v>
+      </c>
+      <c r="P40">
+        <v>50000</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17">
+      <c r="N41" t="s">
+        <v>571</v>
+      </c>
+      <c r="O41">
+        <v>2000</v>
+      </c>
+      <c r="Q41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="14:16">
+      <c r="N43" t="s">
+        <v>572</v>
+      </c>
+      <c r="P43">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="14:16">
+      <c r="N44" t="s">
+        <v>573</v>
+      </c>
+      <c r="P44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="14:16">
+      <c r="N45" t="s">
+        <v>574</v>
+      </c>
+      <c r="O45">
+        <v>400</v>
+      </c>
+      <c r="P45">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="14:15">
+      <c r="N46" t="s">
+        <v>575</v>
+      </c>
+      <c r="O46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17">
+      <c r="N48" t="s">
+        <v>577</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>10000</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17">
+      <c r="N49" t="s">
+        <v>578</v>
+      </c>
+      <c r="O49">
+        <v>300</v>
+      </c>
+      <c r="P49">
+        <v>30000</v>
+      </c>
+      <c r="Q49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17">
+      <c r="N50" t="s">
+        <v>579</v>
+      </c>
+      <c r="O50">
+        <v>500</v>
+      </c>
+      <c r="P50">
+        <v>50000</v>
+      </c>
+      <c r="Q50">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
